--- a/static/data/python/sample exams/Cooper/Cooper_exam_sample_018.xlsx
+++ b/static/data/python/sample exams/Cooper/Cooper_exam_sample_018.xlsx
@@ -31,339 +31,339 @@
     <t>System</t>
   </si>
   <si>
-    <t>(700000AA1.02) Ability to operate and/or monitor the following as they apply to (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES: (CFR: 41.5 / 41.10 / 45.5 / 45.7 / 45.8) Turbine/generator controls</t>
-  </si>
-  <si>
-    <t>(295030EK2.04) Knowledge of the relationship between the (EPE 7) LOW SUPPRESSION POOL WATER LEVEL and the following systems or components: (CFR: 41.7 / 45.8) RHR/LPCI</t>
-  </si>
-  <si>
-    <t>(295001) (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION (G2.4.31) EMERGENCY PROCEDURES / PLAN Knowledge of annunciator alarms, indications, or response procedures (CFR: 41.10 / 45.3)</t>
-  </si>
-  <si>
-    <t>(295025EA2.03) Ability to determine and/or interpret the following as they apply to (EPE 2) HIGH REACTOR PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Suppression pool temperature</t>
+    <t>(295024EK2.24) Knowledge of the relationship between the (EPE 1) HIGH DRYWELL PRESSURE and the following systems or components: (CFR: 41.7 / 45.8) Safety/relief valves</t>
   </si>
   <si>
     <t>(600000AK1.02) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 24) PLANT FIRE ON SITE: (CFR: 41.8 / 41.10 / 45.3) Firefighting methods for each type of fire</t>
   </si>
   <si>
-    <t>(295018AK3.04) Knowledge of the reasons for the following responses or actions as they apply to (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW): (CFR: 41.5 / 45.6) Starting the standby pump</t>
-  </si>
-  <si>
-    <t>(295023AA1.06) Ability to operate and/or monitor the following as they apply to (APE 23) REFUELING ACCIDENTS: (CFR: 41.7 / 45.6) Nuclear instrumentation</t>
-  </si>
-  <si>
-    <t>(295003AK2.06) Knowledge of the relationship between the (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER and the following systems or components: (CFR: 41.7 / 45.8) DC electrical loads</t>
-  </si>
-  <si>
-    <t>(295004) (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER (G2.1.40) CONDUCT OF OPERATIONS Knowledge of refueling administrative requirements (CFR: 41.10 / 43.5 / 43.6 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295016AA2.02) Ability to determine and/or interpret the following as they apply to (APE 16) CONTROL ROOM ABANDONMENT: (CFR: 41.10 / 43.5 / 45.13) Reactor water level</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(295019AA1.03) Ability to operate and/or monitor the following as they apply to (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR: (CFR: 41.7 / 45.6) Air compressors </t>
-  </si>
-  <si>
-    <t>(295026EK3.01) Knowledge of the reasons for the following responses or actions as they apply to (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE: (CFR: 41.5 / 45.6) Emergency/normal depressurization</t>
-  </si>
-  <si>
-    <t>(295031EA1.11) Ability to operate and/or monitor the following as they apply to (EPE 8) REACTOR LOW WATER LEVEL: (CFR: 41.7 / 45.6) Condensate system</t>
-  </si>
-  <si>
-    <t>(295021AK2.04) Knowledge of the relationship between the (APE 21) LOSS OF SHUTDOWN COOLING and the following systems or components: (CFR: 41.7 / 45.8) Component cooling water systems</t>
-  </si>
-  <si>
-    <t>(295038) (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE (G2.1.41) CONDUCT OF OPERATIONS Knowledge of the refueling process (CFR: 41.2 / 41.10 / 43.6 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295027EA2.05) Ability to determine and/or interpret the following as they apply to (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.10 / 43.5 / 45.13) Reactor water level</t>
+    <t>(295018AA1.04) Ability to operate and/or monitor the following as they apply to (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW): (CFR: 41.7 / 45.6) Reactor water cleanup system</t>
+  </si>
+  <si>
+    <t>(295031) (EPE 8) REACTOR LOW WATER LEVEL (G2.1.2) CONDUCT OF OPERATIONS Knowledge of operator responsibilities during any mode of plant operation (CFR: 41.10 / 43.1 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295027EK3.03) Knowledge of the reasons for the following responses or actions as they apply to (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.5 / 45.6) Reactor SCRAM</t>
+  </si>
+  <si>
+    <t>(295037EA2.08) Ability to determine and/or interpret the following as they apply to (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN: (CFR: 41.10 / 43.5 / 45.13) SCRAM discharge volume level</t>
+  </si>
+  <si>
+    <t>(295038EK2.03) Knowledge of the relationship between the (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE and the following systems or components: (CFR: 41.7 / 45.8) Plant ventilation systems</t>
+  </si>
+  <si>
+    <t>(295019AK2.11) Knowledge of the relationship between the (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR and the following systems or components: (CFR: 41.7 / 45.8) Radwaste</t>
+  </si>
+  <si>
+    <t>(295004AA1.02) Ability to operate and/or monitor the following as they apply to (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER: (CFR: 41.7 / 45.6) Systems necessary to ensure safe plant shutdown</t>
+  </si>
+  <si>
+    <t>(295026) (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE (G2.3.12) RADIATION CONTROL Knowledge of radiological safety principles and procedures pertaining to licensed operator duties, such as response to radiation monitor alarms, containment entry requirements, fuel handling responsibilities, access to locked high-radiation areas, or alignment of filters (CFR: 41.12 / 43.4 / 45.9 / 45.10)</t>
+  </si>
+  <si>
+    <t>(295023AK3.03) Knowledge of the reasons for the following responses or actions as they apply to (APE 23) REFUELING ACCIDENTS: (CFR: 41.5 / 45.6) Ventilation isolation</t>
+  </si>
+  <si>
+    <t>(295030EA2.02) Ability to determine and/or interpret the following as they apply to (EPE 7) LOW SUPPRESSION POOL WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Suppression pool temperature</t>
+  </si>
+  <si>
+    <t>(295001AK2.11) Knowledge of the relationship between the (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION and the following systems or components: (CFR: 41.7 / 45.8) REACTOR MANUAL CONTROL SYSTEM (BWR 2, 3, 4, 5)</t>
   </si>
   <si>
     <t>(295006AK1.01) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 6) SCRAM:(CFR: 41.8 to 41.10) Decay heat generation and removal</t>
   </si>
   <si>
-    <t>(295024EK3.07) Knowledge of the reasons for the following responses or actions as they apply to (EPE 1) HIGH DRYWELL PRESSURE: (CFR: 41.5 / 45.6) Drywell venting</t>
-  </si>
-  <si>
-    <t>(295037EA1.16) Ability to operate and/or monitor the following as they apply to (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN: (CFR: 41.7 / 45.5 to 45.8) Reactor/turbine pressure regulating system</t>
-  </si>
-  <si>
-    <t>(295005AK2.05) Knowledge of the relationship between the (APE 5) MAIN TURBINE GENERATOR TRIP and the following systems or components: (CFR: 41.7 / 45.8) Main and reheat steam system</t>
-  </si>
-  <si>
-    <t>(295022AA2.04) Ability to determine and/or interpret the following as they apply to (APE 22) LOSS OF CONTROL ROD DRIVE PUMPS: (CFR: 41.10 / 43.5 / 45.13) Reactor water level</t>
-  </si>
-  <si>
-    <t>(295033EK1.04) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 10) HIGH SECONDARY CONTAINMENT AREA RADIATION LEVELS: (CFR: 41.8 to 41.10) Maximum normal operating radiation limit</t>
-  </si>
-  <si>
-    <t>(295012AK3.02) Knowledge of the reasons for the following responses or actions as they apply to (APE 12) HIGH DRYWELL TEMPERATURE: (CFR: 41.5 / 45.6) Venting</t>
-  </si>
-  <si>
-    <t>(295014AA1.03) Ability to operate and/or monitor the following as they apply to (APE 14) INADVERTENT REACTIVITY ADDITION: (CFR: 41.7 / 45.6) RMCS</t>
-  </si>
-  <si>
-    <t>(295011AK2.01) Knowledge of the relationship between the (APE 11) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY) and the following systems or components: (CFR: 41.7 / 45.8) Containment ventilation/cooling</t>
-  </si>
-  <si>
-    <t>(295029) (EPE 6) HIGH SUPPRESSION POOL WATER LEVEL (G2.4.4) EMERGENCY PROCEDURES / PLAN Ability to recognize abnormal indications for system operating parameters that are entry-level conditions for emergency and abnormal operating procedures (CFR: 41.10 / 43.2 / 45.6)</t>
-  </si>
-  <si>
-    <t>(215004K6.03) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM : (CFR: 41.7 / 45.7) Detector drive motor</t>
-  </si>
-  <si>
-    <t>(300000K4.01) Knowledge of (SF8 IA) INSTRUMENT AIR SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Modes of control</t>
-  </si>
-  <si>
-    <t>(262002K2.01) (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) Knowledge of electrical power supplies to the following: (CFR: 41.7) Static switch/inverter</t>
-  </si>
-  <si>
-    <t>(223002A2.03) Ability to (a) predict the impacts of the following on the (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) System logic failures</t>
-  </si>
-  <si>
-    <t>(215003) (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM (G2.1.45) CONDUCT OF OPERATIONS Ability to identify and interpret diverse indications to validate the response of another indication (CFR: 41.7 / 43.5 / 45.4)</t>
-  </si>
-  <si>
-    <t>(217000A3.01) Ability to monitor automatic operation of the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) including: (CFR: 41.7 / 45.7) Valve operation</t>
-  </si>
-  <si>
-    <t>(209001K5.04) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM : (CFR: 41.5 / 45.3) Heat removal (transfer) mechanisms</t>
-  </si>
-  <si>
-    <t>(259002K1.17) Knowledge of the physical connections and/or cause and effect relationships between the (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) RWCU</t>
-  </si>
-  <si>
-    <t>(203000A4.14) Ability to manually operate and/or monitor the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6) in the control room: (CFR: 41.7 / 45.5 to 45.8) Testable check valves</t>
-  </si>
-  <si>
-    <t>(205000K3.02) Knowledge of the effect that a loss or malfunction of the (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Reactor water level</t>
-  </si>
-  <si>
-    <t>(215005A1.05) Ability to predict and/or monitor changes in parameters associated with operation of the (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR including: (CFR: 41.5 / 45.5) Lights and alarms</t>
-  </si>
-  <si>
-    <t>(510000K6.07) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF4 SWS*) SERVICE WATER SYSTEM: (CFR: 41.7 / 45.7) Loss of AC electrical distribution</t>
-  </si>
-  <si>
-    <t>(262001K4.03) Knowledge of (SF6 AC) AC ELECTRICAL DISTRIBUTION design features and/or interlocks that provide for the following: (CFR: 41.7) Automatic bus transfer</t>
-  </si>
-  <si>
-    <t>(400000K2.02) (SF8 CCS) COMPONENT COOLING WATER SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) CCW valves</t>
-  </si>
-  <si>
-    <t>(239002A2.06) Ability to (a) predict the impacts of the following on the (SF3 SRV) SAFETY RELIEF VALVES and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Reactor high pressure</t>
-  </si>
-  <si>
-    <t>(212000) (SF7 RPS) REACTOR PROTECTION SYSTEM  (291008K1.06) BREAKERS, RELAYS, AND DISCONNECTS (CFR: 41.7) Interpreting one-line diagram of control circuitry</t>
-  </si>
-  <si>
-    <t>(261000A3.03) Ability to monitor automatic operation of the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM including: (CFR: 41.7 / 45.7) Valve/damper operation</t>
-  </si>
-  <si>
-    <t>(218000K5.03) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM: (CFR: 41.5 / 45.3) Reactor pressure</t>
-  </si>
-  <si>
-    <t>(263000K1.01) Knowledge of the physical connections and/or cause and effect relationships between the (SF6 DC) DC ELECTRICAL DISTRIBUTION and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) AC electrical distribution</t>
-  </si>
-  <si>
-    <t>(264000A4.04) Ability to manually operate and/or monitor the (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) in the control room: (CFR: 41.7 / 45.5 to 45.8) Starting, loading, unloading, and stopping of emergency generator</t>
-  </si>
-  <si>
-    <t>(211000K3.04) Knowledge of the effect that a loss or malfunction of the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Jet pump differential pressure (BWR 3, 4, 5, 6)</t>
-  </si>
-  <si>
-    <t>(209002A1.12) Ability to predict and/or monitor changes in parameters associated with operation of the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM including: (CFR: 41.5 / 45.5) Reactor power</t>
-  </si>
-  <si>
-    <t>(215004K6.04) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM : (CFR: 41.7 / 45.7) Detectors</t>
-  </si>
-  <si>
-    <t>(300000K4.04) Knowledge of (SF8 IA) INSTRUMENT AIR SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Containment isolation</t>
-  </si>
-  <si>
-    <t>(262002K2.02) (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) Knowledge of electrical power supplies to the following: (CFR: 41.7) Motor generator</t>
-  </si>
-  <si>
-    <t>(223002A2.14) Ability to (a) predict the impacts of the following on the (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Reactor protection system failures</t>
-  </si>
-  <si>
-    <t>(241000K3.11) Knowledge of the effect that a loss or malfunction of the (SF3 RTPRS) REACTOR/TURBINE PRESSURE REGULATING SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) RPS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(272000A1.01) Ability to predict and/or monitor changes in parameters associated with operation of the (SF7, SF9 RMS) RADIATION MONITORING SYSTEM including: (CFR: 41.5 / 45.5) Lights and alarms </t>
-  </si>
-  <si>
-    <t>(268000K1.17) Knowledge of the physical connections and/or cause and effect relationships between the (SF9 RW) RADWASTE SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Secondary containment</t>
-  </si>
-  <si>
-    <t>(259001K4.09) Knowledge of (SF2 FWS) FEEDWATER SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) System isolation from the reactor vessel (check valves, double valve isolation inside/outside containment)</t>
-  </si>
-  <si>
-    <t>(219000K2.03) (SF5 RHR SPC) RHR/LPCI: TORUS/SUPPRESSION POOL COOLING MODE Knowledge of electrical power supplies to the following: (CFR: 41.7) Valve control logic</t>
-  </si>
-  <si>
-    <t>(202002A2.13) Ability to (a) predict the impacts of the following on the (SF1 RSCTL) RECIRCULATION FLOW CONTROL SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of loop flow signal</t>
-  </si>
-  <si>
-    <t>(245000) (SF4 MTGEN) MAIN TURBINE GENERATOR AND AUXILIARY SYSTEMS (G2.2.13) EQUIPMENT CONTROL Knowledge of tagging and clearance procedures (CFR: 41.10 / 43.1 / 45.13)</t>
-  </si>
-  <si>
-    <t>(239003A3.02) Ability to monitor automatic operation of the (SF9 MSVLCS) MAIN STEAM ISOLATION VALVE LEAKAGE CONTROL SYSTEM (BWR 4, 5, 6) including: (CFR: 41.7 / 45.7) Main steamline pressures</t>
-  </si>
-  <si>
-    <t>(290002K5.08) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF4 RVI) REACTOR VESSEL INTERNALS: (CFR: 41.5 / 45.3) Natural circulation</t>
-  </si>
-  <si>
-    <t>(216000K1.23) Knowledge of the physical connections and/or cause and effect relationships between the (SF7 NBI) NUCLEAR BOILER INSTRUMENTATION and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Recirculation system</t>
-  </si>
-  <si>
-    <t>(234000A4.03) Ability to manually operate and/or monitor the (SF8 FH) FUEL HANDLING in the control room: (CFR: 41.7 / 45.5 to 45.8) Mode switch</t>
-  </si>
-  <si>
-    <t>(G2.1.7) CONDUCT OF OPERATIONS Ability to evaluate plant performance and make operational judgments based on operating characteristics, reactor behavior, and instrument interpretation (CFR: 41.5 / 43.5 / 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.1.43) CONDUCT OF OPERATIONS Ability to use an online power distribution monitoring system and/or procedures to determine the effects on reactivity of plant changes, such as RCS temperature, secondary plant, or fuel depletion (CFR: 41.10 / 43.6 / 45.6)</t>
-  </si>
-  <si>
-    <t>(G2.2.17) EQUIPMENT CONTROL Knowledge of the process for managing maintenance activities during power operations, such as risk assessments, work prioritization, and coordination with the transmission system operator (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.2.6) EQUIPMENT CONTROL Knowledge of the process for making changes to procedures (CFR: 41.10 / 43.3 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.3.12) RADIATION CONTROL Knowledge of radiological safety principles and procedures pertaining to licensed operator duties, such as response to radiation monitor alarms, containment entry requirements, fuel handling responsibilities, access to locked high-radiation areas, or alignment of filters (CFR: 41.12 / 43.4 / 45.9 / 45.10)</t>
-  </si>
-  <si>
-    <t>(G2.4.42) EMERGENCY PROCEDURES / PLAN Knowledge of emergency response facilities (CFR: 41.10 / 45.11)</t>
-  </si>
-  <si>
-    <t>(292007K1.03) FUEL DEPLETION AND BURNABLE POISONS (CFR: 41.1) Given a curve of K-effective versus core age, state the reasons for maximum, minimum, and inflection points</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(292003K1.08) REACTOR KINETICS AND NEUTRON SOURCES (CFR: 41.1) Given the power equation, solve problems for power </t>
-  </si>
-  <si>
-    <t>(292002K1.10) NEUTRON LIFE CYCLE (CFR: 41.1) Define shutdown margin</t>
-  </si>
-  <si>
-    <t>(293008K1.01) THERMAL HYDRAULICS (CFR: 41.14) (BOILING HEAT TRANSFER) Distinguish between boiling processes and other heat transfer mechanisms</t>
-  </si>
-  <si>
-    <t>(293007K1.02) HEAT TRANSFER (CFR: 41.14) (HEAT TRANSFER) Describe thermal conductivity</t>
-  </si>
-  <si>
-    <t>(293006K1.11) FLUID STATICS AND DYNAMICS (CFR: 41.14) (PUMPS AND PUMP CHARACTERISTICS) Define net positive suction head (NPSH)</t>
-  </si>
-  <si>
-    <t>(700000) (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES (G2.4.25) EMERGENCY PROCEDURES / PLAN Knowledge of fire protection procedures (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295030EA2.03) Ability to determine and/or interpret the following as they apply to (EPE 7) LOW SUPPRESSION POOL WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Reactor pressure</t>
-  </si>
-  <si>
-    <t>(295001) (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION (G2.2.3) EQUIPMENT CONTROL (Multi-unit license) Knowledge of the design, procedural, or operational differences between units (CFR: 41.5 / 41.6 / 41.7 / 41.10 / 45.12)</t>
-  </si>
-  <si>
-    <t>(295025EA2.04) Ability to determine and/or interpret the following as they apply to (EPE 2) HIGH REACTOR PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Suppression pool level</t>
-  </si>
-  <si>
-    <t>(600000) (APE 24) PLANT FIRE ON SITE (G2.1.46) CONDUCT OF OPERATIONS Ability to use integrated control systems to operate plant systems or components (CFR: 41.10/ 45.12 / 45.13)</t>
+    <t>(295003AA1.02) Ability to operate and/or monitor the following as they apply to (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER: (CFR: 41.7 / 45.6) Emergency generators</t>
+  </si>
+  <si>
+    <t>(700000) (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES (G2.4.28) EMERGENCY PROCEDURES / PLAN Knowledge of procedures relating to a security event (ensure that the test item includes no safeguards information) (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295021AK3.04) Knowledge of the reasons for the following responses or actions as they apply to (APE 21) LOSS OF SHUTDOWN COOLING: (CFR: 41.5 / 45.6) Maximizing reactor water cleanup flow</t>
+  </si>
+  <si>
+    <t>(295005AA2.08) Ability to determine and/or interpret the following as they apply to (APE 5) MAIN TURBINE GENERATOR TRIP: (CFR: 41.10 / 43.5 / 45.13) Electrical distribution status</t>
+  </si>
+  <si>
+    <t>(295016AK2.05) Knowledge of the relationship between the (APE 16) CONTROL ROOM ABANDONMENT and the following systems or components: (CFR: 41.7 / 45.8) DC electrical distribution</t>
+  </si>
+  <si>
+    <t>(295025EK1.05) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 2) HIGH REACTOR PRESSURE: (CFR: 41.8 to 41.10) Exceeding safety limits</t>
+  </si>
+  <si>
+    <t>(295008) (APE 8) HIGH REACTOR WATER LEVEL (G2.2.20) EQUIPMENT CONTROL Knowledge of the process for managing troubleshooting activities (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295035EK3.02) Knowledge of the reasons for the following responses or actions as they apply to (EPE 12) SECONDARY CONTAINMENT HIGH DIFFERENTIAL PRESSURE: (CFR: 41.5 / 45.6) Secondary containment ventilation alignment</t>
+  </si>
+  <si>
+    <t>(295012AA2.02) Ability to determine and/or interpret the following as they apply to (APE 12) HIGH DRYWELL TEMPERATURE: (CFR: 41.10 / 43.5 / 45.13) Drywell pressure</t>
+  </si>
+  <si>
+    <t>(295020AK2.03) Knowledge of the relationship between the (APE 20) INADVERTENT CONTAINMENT ISOLATION and the following systems or components: (CFR: 41.7 / 45.8) Drywell or containment ventilation</t>
+  </si>
+  <si>
+    <t>(295010AK1.03) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 10) HIGH DRYWELL PRESSURE: (CFR: 41.8 to 41.10) Drywell temperature increase</t>
+  </si>
+  <si>
+    <t>(295017AA1.02) Ability to operate and/or monitor the following as they apply to (APE 17) ABNORMAL OFFSITE RELEASE RATE: (CFR: 41.7 / 45.6) Off-gas system</t>
+  </si>
+  <si>
+    <t>(215003A1.08) Ability to predict and/or monitor changes in parameters associated with operation of the (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM including: (CFR: 41.5 / 45.5) IRM back panel switches</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(261000A4.01) Ability to manually operate and/or monitor the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) Offsite radioactive release limits </t>
+  </si>
+  <si>
+    <t>(262001K5.01) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF6 AC) AC ELECTRICAL DISTRIBUTION: (CFR: 41.5 / 45.3) Paralleling AC sources</t>
+  </si>
+  <si>
+    <t>(510000K3.11) Knowledge of the effect that a loss or malfunction of the (SF4 SWS*) SERVICE WATER SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Fuel pool cooling and cleanup system</t>
+  </si>
+  <si>
+    <t>(223002K1.25) Knowledge of the physical connections and/or cause and effect relationships between the (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) RPS</t>
+  </si>
+  <si>
+    <t>(264000K4.06) Knowledge of (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) design features and/or interlocks that provide for the following: (CFR: 41.7) Governor control</t>
+  </si>
+  <si>
+    <t>(239002A2.02) Ability to (a) predict the impacts of the following on the (SF3 SRV) SAFETY RELIEF VALVES and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Leaking SRV</t>
+  </si>
+  <si>
+    <t>(259002K2.03) (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Feedwater controllers</t>
+  </si>
+  <si>
+    <t>(211000) (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM (G2.2.43) EQUIPMENT CONTROL Knowledge of the process used to track inoperable alarms (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(262002K6.02) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC): (CFR: 41.7 / 45.7) DC electrical distribution</t>
+  </si>
+  <si>
+    <t>(400000A3.07) Ability to monitor automatic operation of the (SF8 CCS) COMPONENT COOLING WATER SYSTEM including: (CFR: 41.7 / 45.7) System realignments</t>
+  </si>
+  <si>
+    <t>(300000A1.03) Ability to predict and/or monitor changes in parameters associated with operation of the (SF8 IA) INSTRUMENT AIR SYSTEM including: (CFR: 41.5 / 45.5) Service air pressure</t>
+  </si>
+  <si>
+    <t>(203000A4.02) Ability to manually operate and/or monitor the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6) in the control room: (CFR: 41.7 / 45.5 to 45.8) System valves</t>
+  </si>
+  <si>
+    <t>(212000K5.02) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF7 RPS) REACTOR PROTECTION SYSTEM : (CFR: 41.5 / 45.3) Logic channel arrangements</t>
+  </si>
+  <si>
+    <t>(215005K3.10) Knowledge of the effect that a loss or malfunction of the (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR will have on the following systems or system parameters: (CFR: 41.7 / 45.4) OPRM</t>
+  </si>
+  <si>
+    <t>(263000K1.03) Knowledge of the physical connections and/or cause and effect relationships between the (SF6 DC) DC ELECTRICAL DISTRIBUTION and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Plant ventilation systems</t>
+  </si>
+  <si>
+    <t>(209001K4.06) Knowledge of (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Adequate pump net positive suction head</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(215004A2.05) Ability to (a) predict the impacts of the following on the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Faulty or erratic operation of detectors/system </t>
+  </si>
+  <si>
+    <t>(209002K2.03) (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Initiation logic</t>
+  </si>
+  <si>
+    <t>(217000) (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM  (291002K1.22) SENSORS AND DETECTORS (CFR: 41.7) (NUCLEAR INSTRUMENTATION) Failure modes of fission chambers, ion chambers, and proportional counters</t>
+  </si>
+  <si>
+    <t>(218000K6.06) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM: (CFR: 41.7 / 45.7) DC power</t>
+  </si>
+  <si>
+    <t>(205000A3.01) Ability to monitor automatic operation of the (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) including: (CFR: 41.7 / 45.7) Valve operation</t>
+  </si>
+  <si>
+    <t>(215003A1.05) Ability to predict and/or monitor changes in parameters associated with operation of the (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM including: (CFR: 41.5 / 45.5) SCRAM and rod block trip setpoints</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(261000A4.06) Ability to manually operate and/or monitor the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) </t>
+  </si>
+  <si>
+    <t>(262001K5.02) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF6 AC) AC ELECTRICAL DISTRIBUTION: (CFR: 41.5 / 45.3) Breaker control power</t>
+  </si>
+  <si>
+    <t>(510000K3.15) Knowledge of the effect that a loss or malfunction of the (SF4 SWS*) SERVICE WATER SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Service water system pressure</t>
+  </si>
+  <si>
+    <t>(245000K6.11) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF4 MTGEN) MAIN TURBINE GENERATOR AND AUXILIARY SYSTEMS: (CFR: 41.7 / 45.7) Reactor SCRAM</t>
+  </si>
+  <si>
+    <t>(290003A3.02) Ability to monitor automatic operation of the (SF9 CRV) CONTROL ROOM VENTILATION including: (CFR: 41.7 / 45.7) Initiation/failure of fire protection system</t>
+  </si>
+  <si>
+    <t>(239001A1.10) Ability to predict and/or monitor changes in parameters associated with operation of the (SF3, SF4 MRSS) MAIN AND REHEAT STEAM SYSTEM including: (CFR: 41.5 / 45.5) Reactor power</t>
+  </si>
+  <si>
+    <t>(271000A4.07) Ability to manually operate and/or monitor the (SF9 OG) OFFGAS SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) System differential pressures</t>
+  </si>
+  <si>
+    <t>(230000K5.07) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF5 RHR SPS) RHR/LPCI: TORUS/SUPPRESSION POOL SPRAY MODE: (CFR: 41.5 / 45.3) Vacuum breaker operation</t>
+  </si>
+  <si>
+    <t>(286000K3.05) Knowledge of the effect that a loss or malfunction of the (SF8 FPS) FIRE PROTECTION SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Isolation condenser system (Nine Mile Point 1, Dresden)</t>
+  </si>
+  <si>
+    <t>(272000K1.16) Knowledge of the physical connections and/or cause and effect relationships between the (SF7, SF9 RMS) RADIATION MONITORING SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Plant process computer/parameter display systems</t>
+  </si>
+  <si>
+    <t>(202001K4.02) Knowledge of (SF1, SF4 RS) RECIRCULATION SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Adequate recirculation pump NPSH</t>
+  </si>
+  <si>
+    <t>(226001A2.18) Ability to (a) predict the impacts of the following on the (SF5 RHR CSS) RHR/LPCI: CONTAINMENT SPRAY MODE SYSTEM MODE and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Low (or negative) containment/drywell pressure during system operation</t>
+  </si>
+  <si>
+    <t>(268000K2.01) (SF9 RW) RADWASTE SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Radiological release isolation valves</t>
+  </si>
+  <si>
+    <t>(239003) (SF9 MSVLCS) MAIN STEAM ISOLATION VALVE LEAKAGE CONTROL SYSTEM  (G2.1.14) CONDUCT OF OPERATIONS Knowledge of criteria or conditions that require plantwide announcements, such as pump starts, reactor trips, and mode changes (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(G2.1.47) CONDUCT OF OPERATIONS Ability to direct nonlicensed personnel activities inside the control room (CFR: 41.10 / 43.5 / 45.5 / 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.1.34) CONDUCT OF OPERATIONS Knowledge of RCS or balance of plant chemistry controls, including parameters measured and reasons for the control (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(G2.2.13) EQUIPMENT CONTROL Knowledge of tagging and clearance procedures (CFR: 41.10 / 43.1 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.2.41) EQUIPMENT CONTROL Ability to obtain and interpret station electrical and mechanical drawings (reference potential) (CFR: 41.10 / 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.3.5) RADIATION CONTROL Ability to use radiation monitoring systems, such as fixed radiation monitors and alarms or personnel monitoring equipment (CFR: 41.11 / 41.12 / 43.4 / 45.9)</t>
+  </si>
+  <si>
+    <t>(G2.4.29) EMERGENCY PROCEDURES / PLAN Knowledge of the emergency plan implementing procedures (CFR: 41.10 / 43.5 / 45.11)</t>
+  </si>
+  <si>
+    <t>(292006K1.05) FISSION PRODUCT POISONS (CFR: 41.1) Describe the following processes and state their effect on reactor operations: --Equilibrium xenon</t>
+  </si>
+  <si>
+    <t>(292004K1.16) REACTIVITY COEFFICIENTS (CFR: 41.1) Explain and describe the effect of power defect and Doppler defect on reactivity</t>
+  </si>
+  <si>
+    <t>(292001K1.05) NEUTRONS (CFR: 41.1) Identify characteristics of good moderators</t>
+  </si>
+  <si>
+    <t>(293006K1.03) FLUID STATICS AND DYNAMICS (CFR: 41.14) Define head loss</t>
+  </si>
+  <si>
+    <t>(293003K1.22) STEAM (CFR: 41.14) Explain the usefulness of steam tables to the control</t>
+  </si>
+  <si>
+    <t>(293005K1.03) THERMODYNAMIC CYCLES (CFR: 41.14) Describe the steam quality/moisture effects on turbine integrity and efficiency</t>
+  </si>
+  <si>
+    <t>(295024EA2.12) Ability to determine and/or interpret the following as they apply to (EPE 1) HIGH DRYWELL PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Safety/relief valves</t>
+  </si>
+  <si>
+    <t>(600000) (APE 24) PLANT FIRE ON SITE (G2.4.18) EMERGENCY PROCEDURES / PLAN Knowledge of the specific bases for emergency and abnormal operating procedures (CFR: 41.10 / 43.1 / 45.13)</t>
   </si>
   <si>
     <t>(295018AA2.04) Ability to determine and/or interpret the following as they apply to (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW): (CFR: 41.10 / 43.5 / 45.13) System flow</t>
   </si>
   <si>
-    <t>(295023) (APE 23) REFUELING ACCIDENTS (G2.1.42) CONDUCT OF OPERATIONS Knowledge of new and spent fuel movement procedures (SRO Only) (CFR: 43.7 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295007) (APE 7) HIGH REACTOR PRESSURE (G2.1.18) CONDUCT OF OPERATIONS Ability to make accurate, clear, and concise logs, records, status boards, and reports (CFR: 41.10 / 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(500000EA2.05) Ability to determine and/or interpret the following as they apply to (EPE 16) HIGH CONTAINMENT HYDROGEN CONCENTRATION: (CFR: 41.10 / 43.5 / 45.13) Hydrogen concentration limits for containment</t>
-  </si>
-  <si>
-    <t>(295034) (EPE 11) SECONDARY CONTAINMENT VENTILATION HIGH RADIATION (G2.1.31) CONDUCT OF OPERATIONS Ability to locate control room switches, controls, and indications, and to determine that they correctly reflect the desired plant lineup (CFR: 41.10 / 45.12)</t>
-  </si>
-  <si>
-    <t>(215003) (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM (G2.4.44) EMERGENCY PROCEDURES / PLAN Knowledge of emergency plan implementing procedures protective action recommendations (SRO Only) (CFR: 41.10 / 41.12 / 43.5 / 45.11)</t>
-  </si>
-  <si>
-    <t>(217000A2.08) Ability to (a) predict the impacts of the following on the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of lube oil cooling</t>
-  </si>
-  <si>
-    <t>(209001) (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM  (G2.2.21) EQUIPMENT CONTROL Knowledge of pre- and post-maintenance operability requirements (CFR: 41.10 / 43.2)</t>
-  </si>
-  <si>
-    <t>(259002A2.02) Ability to (a) predict the impacts of the following on the (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of any number of reactor feedwater flow inputs</t>
-  </si>
-  <si>
-    <t>(203000) (SF2, SF4 RHR/LPCI) RHR/LPCI:  INJECTION MODE (G2.1.29) CONDUCT OF OPERATIONS Knowledge of how to conduct system lineups, such as valves, breakers, or switches (CFR: 41.10 / 45.1 / 45.12)</t>
-  </si>
-  <si>
-    <t>(230000A2.07) Ability to (a) predict the impacts of the following on the (SF5 RHR SPS) RHR/LPCI: TORUS/SUPPRESSION POOL SPRAY MODE and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Emergency generator failure</t>
-  </si>
-  <si>
-    <t>(202001) (SF1, SF4 RS) RECIRCULATION SYSTEM (G2.1.47) CONDUCT OF OPERATIONS Ability to direct nonlicensed personnel activities inside the control room (CFR: 41.10 / 43.5 / 45.5 / 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(233000A2.01) Ability to (a) predict the impacts of the following on the (SF9 FPCCU) FUEL POOL COOLING/CLEANUP and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Abnormal fuel pool level </t>
-  </si>
-  <si>
-    <t>(G2.1.30) CONDUCT OF OPERATIONS Ability to locate and operate components, including local controls (CFR: 41.7 / 45.7)</t>
-  </si>
-  <si>
-    <t>(G2.1.37) CONDUCT OF OPERATIONS Knowledge of procedures, guidelines, or limitations associated with reactivity management (CFR: 41.1 / 41.5 / 41.10 / 43.6 / 45.6)</t>
-  </si>
-  <si>
-    <t>(G2.2.37) EQUIPMENT CONTROL Ability to determine operability or availability of safety-related equipment (SRO Only) (CFR: 43.2 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.2.40) EQUIPMENT CONTROL Ability to apply technical specifications with action statements of less than or equal to 1 hour (CFR: 41.10 / 43.2 / 43.5 / 45.3)</t>
+    <t>(295031) (EPE 8) REACTOR LOW WATER LEVEL (G2.4.51) EMERGENCY PROCEDURES / PLAN Knowledge of emergency operating procedure exit conditions (e.g., emergency condition no longer exists or severe accident guideline entry is required) (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295027EA2.02) Ability to determine and/or interpret the following as they apply to (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.10 / 43.5 / 45.13) Containment pressure</t>
+  </si>
+  <si>
+    <t>(295037) (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN (G2.1.9) CONDUCT OF OPERATIONS Ability to direct licensed personnel activities inside the control room (SRO Only) (CFR: 43.1 / 45.5 / 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295038EA2.02) Ability to determine and/or interpret the following as they apply to (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE: (CFR: 41.10 / 43.5 / 45.13) Total number of curies released or release rate/duration</t>
+  </si>
+  <si>
+    <t>(295029EA2.01) Ability to determine and/or interpret the following as they apply to (EPE 6) HIGH SUPPRESSION POOL WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Suppression pool water level</t>
+  </si>
+  <si>
+    <t>(295036) (EPE 13) SECONDARY CONTAINMENT HIGH SUMP/AREA WATER LEVEL (G2.2.15) EQUIPMENT CONTROL Ability to determine the expected plant configuration using design and configuration control documentation, such as drawings, lineups or, tagouts (reference potential) (CFR: 41.10 / 43.3 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295034EA2.01) Ability to determine and/or interpret the following as they apply to (EPE 11) SECONDARY CONTAINMENT VENTILATION HIGH RADIATION: (CFR: 41.10 / 43.5 / 45.13) Ventilation radiation levels</t>
+  </si>
+  <si>
+    <t>(223002A2.07) Ability to (a) predict the impacts of the following on the (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Various process instrumentation failures</t>
+  </si>
+  <si>
+    <t>(264000) (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) (G2.1.15) CONDUCT OF OPERATIONS Knowledge of administrative requirements for temporary management direction, such as standing orders, night orders, or operations memoranda (CFR: 41.10 / 45.12)</t>
+  </si>
+  <si>
+    <t>(239002A2.04) Ability to (a) predict the impacts of the following on the (SF3 SRV) SAFETY RELIEF VALVES and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) ADS actuation</t>
+  </si>
+  <si>
+    <t>(259002) (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM (G2.1.4) CONDUCT OF OPERATIONS Knowledge of individual licensed operator responsibilities related to shift staffing, such as medical requirements, \u201cno-solo\u201d operation, maintenance of active license status, 10 CFR Part 55 (CFR: 41.10 / 43.2)</t>
+  </si>
+  <si>
+    <t>(211000A2.02) Ability to (a) predict the impacts of the following on the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Failure of squib valves to open</t>
+  </si>
+  <si>
+    <t>(256000) (SF2 CDS) CONDENSATE SYSTEM (G2.2.36) EQUIPMENT CONTROL Ability to analyze the effect of maintenance activities, such as degraded power sources, on the status of limiting conditions for operation (CFR: 41.10 / 43.2 / 45.13)</t>
+  </si>
+  <si>
+    <t>(219000A2.07) Ability to (a) predict the impacts of the following on the (SF5 RHR SPC) RHR/LPCI: TORUS/SUPPRESSION POOL COOLING MODE and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Emergency generator failure</t>
+  </si>
+  <si>
+    <t>(290002) (SF4 RVI) REACTOR VESSEL INTERNALS (G2.4.50) EMERGENCY PROCEDURES / PLAN Ability to verify system alarm setpoints and operate controls identified in the alarm response procedure (CFR: 41.10 / 43.5 / 45.3)</t>
+  </si>
+  <si>
+    <t>(G2.1.25) CONDUCT OF OPERATIONS Ability to interpret reference materials, such as graphs, curves, and tables (reference potential) (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(G2.1.39) CONDUCT OF OPERATIONS Knowledge of conservative decision-making practices (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(G2.2.18) EQUIPMENT CONTROL Knowledge of the process for managing maintenance activities during shutdown operations, such as risk assessments and work prioritization (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.2.22) EQUIPMENT CONTROL Knowledge of limiting conditions for operation and safety limits (CFR: 41.5 / 43.2 / 45.2)</t>
   </si>
   <si>
     <t>(G2.3.11) RADIATION CONTROL Ability to control radiation releases (CFR: 41.11 / 43.4 / 45.10)</t>
   </si>
   <si>
-    <t>(G2.4.32) EMERGENCY PROCEDURES / PLAN Knowledge of operator response to loss of annunciators (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.4.5) EMERGENCY PROCEDURES / PLAN Knowledge of the organization of the operating procedures network for normal, abnormal, and emergency evolutions (CFR: 41.10 / 43.5 / 45.13)</t>
+    <t>(G2.4.3) EMERGENCY PROCEDURES / PLAN Ability to identify post-accident instrumentation (CFR: 41.6 / 45.4)</t>
+  </si>
+  <si>
+    <t>(G2.4.31) EMERGENCY PROCEDURES / PLAN Knowledge of annunciator alarms, indications, or response procedures (CFR: 41.10 / 45.3)</t>
+  </si>
+  <si>
+    <t>K2</t>
+  </si>
+  <si>
+    <t>K1</t>
   </si>
   <si>
     <t>A1</t>
   </si>
   <si>
-    <t>K2</t>
-  </si>
-  <si>
     <t>G</t>
   </si>
   <si>
+    <t>K3</t>
+  </si>
+  <si>
     <t>A2</t>
   </si>
   <si>
-    <t>K1</t>
-  </si>
-  <si>
-    <t>K3</t>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>K5</t>
+  </si>
+  <si>
+    <t>K4</t>
   </si>
   <si>
     <t>K6</t>
   </si>
   <si>
-    <t>K4</t>
-  </si>
-  <si>
     <t>A3</t>
   </si>
   <si>
-    <t>K5</t>
-  </si>
-  <si>
-    <t>A4</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
@@ -385,217 +385,217 @@
     <t>T</t>
   </si>
   <si>
+    <t>295024</t>
+  </si>
+  <si>
+    <t>600000</t>
+  </si>
+  <si>
+    <t>295018</t>
+  </si>
+  <si>
+    <t>295031</t>
+  </si>
+  <si>
+    <t>295027</t>
+  </si>
+  <si>
+    <t>295037</t>
+  </si>
+  <si>
+    <t>295038</t>
+  </si>
+  <si>
+    <t>295019</t>
+  </si>
+  <si>
+    <t>295004</t>
+  </si>
+  <si>
+    <t>295026</t>
+  </si>
+  <si>
+    <t>295023</t>
+  </si>
+  <si>
+    <t>295030</t>
+  </si>
+  <si>
+    <t>295001</t>
+  </si>
+  <si>
+    <t>295006</t>
+  </si>
+  <si>
+    <t>295003</t>
+  </si>
+  <si>
     <t>700000</t>
   </si>
   <si>
-    <t>295030</t>
-  </si>
-  <si>
-    <t>295001</t>
+    <t>295021</t>
+  </si>
+  <si>
+    <t>295005</t>
+  </si>
+  <si>
+    <t>295016</t>
   </si>
   <si>
     <t>295025</t>
   </si>
   <si>
-    <t>600000</t>
-  </si>
-  <si>
-    <t>295018</t>
-  </si>
-  <si>
-    <t>295023</t>
-  </si>
-  <si>
-    <t>295003</t>
-  </si>
-  <si>
-    <t>295004</t>
-  </si>
-  <si>
-    <t>295016</t>
-  </si>
-  <si>
-    <t>295019</t>
-  </si>
-  <si>
-    <t>295026</t>
-  </si>
-  <si>
-    <t>295031</t>
-  </si>
-  <si>
-    <t>295021</t>
-  </si>
-  <si>
-    <t>295038</t>
-  </si>
-  <si>
-    <t>295027</t>
-  </si>
-  <si>
-    <t>295006</t>
-  </si>
-  <si>
-    <t>295024</t>
-  </si>
-  <si>
-    <t>295037</t>
-  </si>
-  <si>
-    <t>295005</t>
-  </si>
-  <si>
-    <t>295022</t>
-  </si>
-  <si>
-    <t>295033</t>
+    <t>295008</t>
+  </si>
+  <si>
+    <t>295035</t>
   </si>
   <si>
     <t>295012</t>
   </si>
   <si>
-    <t>295014</t>
-  </si>
-  <si>
-    <t>295011</t>
+    <t>295020</t>
+  </si>
+  <si>
+    <t>295010</t>
+  </si>
+  <si>
+    <t>295017</t>
+  </si>
+  <si>
+    <t>215003</t>
+  </si>
+  <si>
+    <t>261000</t>
+  </si>
+  <si>
+    <t>262001</t>
+  </si>
+  <si>
+    <t>510000</t>
+  </si>
+  <si>
+    <t>223002</t>
+  </si>
+  <si>
+    <t>264000</t>
+  </si>
+  <si>
+    <t>239002</t>
+  </si>
+  <si>
+    <t>259002</t>
+  </si>
+  <si>
+    <t>211000</t>
+  </si>
+  <si>
+    <t>262002</t>
+  </si>
+  <si>
+    <t>400000</t>
+  </si>
+  <si>
+    <t>300000</t>
+  </si>
+  <si>
+    <t>203000</t>
+  </si>
+  <si>
+    <t>212000</t>
+  </si>
+  <si>
+    <t>215005</t>
+  </si>
+  <si>
+    <t>263000</t>
+  </si>
+  <si>
+    <t>209001</t>
+  </si>
+  <si>
+    <t>215004</t>
+  </si>
+  <si>
+    <t>209002</t>
+  </si>
+  <si>
+    <t>217000</t>
+  </si>
+  <si>
+    <t>218000</t>
+  </si>
+  <si>
+    <t>205000</t>
+  </si>
+  <si>
+    <t>245000</t>
+  </si>
+  <si>
+    <t>290003</t>
+  </si>
+  <si>
+    <t>239001</t>
+  </si>
+  <si>
+    <t>271000</t>
+  </si>
+  <si>
+    <t>230000</t>
+  </si>
+  <si>
+    <t>286000</t>
+  </si>
+  <si>
+    <t>272000</t>
+  </si>
+  <si>
+    <t>202001</t>
+  </si>
+  <si>
+    <t>226001</t>
+  </si>
+  <si>
+    <t>268000</t>
+  </si>
+  <si>
+    <t>239003</t>
+  </si>
+  <si>
+    <t>292006</t>
+  </si>
+  <si>
+    <t>292004</t>
+  </si>
+  <si>
+    <t>292001</t>
+  </si>
+  <si>
+    <t>293006</t>
+  </si>
+  <si>
+    <t>293003</t>
+  </si>
+  <si>
+    <t>293005</t>
   </si>
   <si>
     <t>295029</t>
   </si>
   <si>
-    <t>215004</t>
-  </si>
-  <si>
-    <t>300000</t>
-  </si>
-  <si>
-    <t>262002</t>
-  </si>
-  <si>
-    <t>223002</t>
-  </si>
-  <si>
-    <t>215003</t>
-  </si>
-  <si>
-    <t>217000</t>
-  </si>
-  <si>
-    <t>209001</t>
-  </si>
-  <si>
-    <t>259002</t>
-  </si>
-  <si>
-    <t>203000</t>
-  </si>
-  <si>
-    <t>205000</t>
-  </si>
-  <si>
-    <t>215005</t>
-  </si>
-  <si>
-    <t>510000</t>
-  </si>
-  <si>
-    <t>262001</t>
-  </si>
-  <si>
-    <t>400000</t>
-  </si>
-  <si>
-    <t>239002</t>
-  </si>
-  <si>
-    <t>212000</t>
-  </si>
-  <si>
-    <t>261000</t>
-  </si>
-  <si>
-    <t>218000</t>
-  </si>
-  <si>
-    <t>263000</t>
-  </si>
-  <si>
-    <t>264000</t>
-  </si>
-  <si>
-    <t>211000</t>
-  </si>
-  <si>
-    <t>209002</t>
-  </si>
-  <si>
-    <t>241000</t>
-  </si>
-  <si>
-    <t>272000</t>
-  </si>
-  <si>
-    <t>268000</t>
-  </si>
-  <si>
-    <t>259001</t>
+    <t>295036</t>
+  </si>
+  <si>
+    <t>295034</t>
+  </si>
+  <si>
+    <t>256000</t>
   </si>
   <si>
     <t>219000</t>
   </si>
   <si>
-    <t>202002</t>
-  </si>
-  <si>
-    <t>245000</t>
-  </si>
-  <si>
-    <t>239003</t>
-  </si>
-  <si>
     <t>290002</t>
-  </si>
-  <si>
-    <t>216000</t>
-  </si>
-  <si>
-    <t>234000</t>
-  </si>
-  <si>
-    <t>292007</t>
-  </si>
-  <si>
-    <t>292003</t>
-  </si>
-  <si>
-    <t>292002</t>
-  </si>
-  <si>
-    <t>293008</t>
-  </si>
-  <si>
-    <t>293007</t>
-  </si>
-  <si>
-    <t>293006</t>
-  </si>
-  <si>
-    <t>295007</t>
-  </si>
-  <si>
-    <t>500000</t>
-  </si>
-  <si>
-    <t>295034</t>
-  </si>
-  <si>
-    <t>230000</t>
-  </si>
-  <si>
-    <t>202001</t>
-  </si>
-  <si>
-    <t>233000</t>
   </si>
 </sst>
 </file>
@@ -984,7 +984,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="D2" t="s">
         <v>105</v>
@@ -1001,7 +1001,7 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="D3" t="s">
         <v>106</v>
@@ -1018,7 +1018,7 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="D4" t="s">
         <v>107</v>
@@ -1035,7 +1035,7 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="D5" t="s">
         <v>108</v>
@@ -1052,7 +1052,7 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="D6" t="s">
         <v>109</v>
@@ -1069,7 +1069,7 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="D7" t="s">
         <v>110</v>
@@ -1086,7 +1086,7 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="D8" t="s">
         <v>105</v>
@@ -1103,7 +1103,7 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>3.8</v>
+        <v>2.5</v>
       </c>
       <c r="D9" t="s">
         <v>106</v>
@@ -1120,7 +1120,7 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>2.8</v>
+        <v>4.3</v>
       </c>
       <c r="D10" t="s">
         <v>107</v>
@@ -1137,7 +1137,7 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="D11" t="s">
         <v>108</v>
@@ -1154,7 +1154,7 @@
         <v>15</v>
       </c>
       <c r="C12">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="D12" t="s">
         <v>109</v>
@@ -1171,7 +1171,7 @@
         <v>16</v>
       </c>
       <c r="C13">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="D13" t="s">
         <v>110</v>
@@ -1188,7 +1188,7 @@
         <v>17</v>
       </c>
       <c r="C14">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="D14" t="s">
         <v>105</v>
@@ -1205,7 +1205,7 @@
         <v>18</v>
       </c>
       <c r="C15">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="D15" t="s">
         <v>106</v>
@@ -1222,7 +1222,7 @@
         <v>19</v>
       </c>
       <c r="C16">
-        <v>2.8</v>
+        <v>4.5</v>
       </c>
       <c r="D16" t="s">
         <v>107</v>
@@ -1239,7 +1239,7 @@
         <v>20</v>
       </c>
       <c r="C17">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="D17" t="s">
         <v>108</v>
@@ -1256,7 +1256,7 @@
         <v>21</v>
       </c>
       <c r="C18">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="D18" t="s">
         <v>109</v>
@@ -1273,7 +1273,7 @@
         <v>22</v>
       </c>
       <c r="C19">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="D19" t="s">
         <v>110</v>
@@ -1290,7 +1290,7 @@
         <v>23</v>
       </c>
       <c r="C20">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="D20" t="s">
         <v>105</v>
@@ -1307,7 +1307,7 @@
         <v>24</v>
       </c>
       <c r="C21">
-        <v>2.9</v>
+        <v>4.6</v>
       </c>
       <c r="D21" t="s">
         <v>106</v>
@@ -1324,7 +1324,7 @@
         <v>25</v>
       </c>
       <c r="C22">
-        <v>3.7</v>
+        <v>2.6</v>
       </c>
       <c r="D22" t="s">
         <v>108</v>
@@ -1341,7 +1341,7 @@
         <v>26</v>
       </c>
       <c r="C23">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="D23" t="s">
         <v>109</v>
@@ -1358,7 +1358,7 @@
         <v>27</v>
       </c>
       <c r="C24">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="D24" t="s">
         <v>110</v>
@@ -1375,7 +1375,7 @@
         <v>28</v>
       </c>
       <c r="C25">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="D25" t="s">
         <v>105</v>
@@ -1409,7 +1409,7 @@
         <v>30</v>
       </c>
       <c r="C27">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="D27" t="s">
         <v>107</v>
@@ -1426,10 +1426,10 @@
         <v>31</v>
       </c>
       <c r="C28">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="D28" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E28" t="s">
         <v>149</v>
@@ -1443,10 +1443,10 @@
         <v>32</v>
       </c>
       <c r="C29">
-        <v>3.1</v>
+        <v>3.9</v>
       </c>
       <c r="D29" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E29" t="s">
         <v>150</v>
@@ -1460,10 +1460,10 @@
         <v>33</v>
       </c>
       <c r="C30">
-        <v>3.3</v>
+        <v>3.9</v>
       </c>
       <c r="D30" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="E30" t="s">
         <v>151</v>
@@ -1477,10 +1477,10 @@
         <v>34</v>
       </c>
       <c r="C31">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="D31" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E31" t="s">
         <v>152</v>
@@ -1494,10 +1494,10 @@
         <v>35</v>
       </c>
       <c r="C32">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
       <c r="D32" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E32" t="s">
         <v>153</v>
@@ -1511,7 +1511,7 @@
         <v>36</v>
       </c>
       <c r="C33">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="D33" t="s">
         <v>113</v>
@@ -1528,10 +1528,10 @@
         <v>37</v>
       </c>
       <c r="C34">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="D34" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E34" t="s">
         <v>155</v>
@@ -1545,10 +1545,10 @@
         <v>38</v>
       </c>
       <c r="C35">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="D35" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E35" t="s">
         <v>156</v>
@@ -1562,10 +1562,10 @@
         <v>39</v>
       </c>
       <c r="C36">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="D36" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="E36" t="s">
         <v>157</v>
@@ -1579,10 +1579,10 @@
         <v>40</v>
       </c>
       <c r="C37">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="D37" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E37" t="s">
         <v>158</v>
@@ -1596,10 +1596,10 @@
         <v>41</v>
       </c>
       <c r="C38">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="D38" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="E38" t="s">
         <v>159</v>
@@ -1613,10 +1613,10 @@
         <v>42</v>
       </c>
       <c r="C39">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="D39" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E39" t="s">
         <v>160</v>
@@ -1630,10 +1630,10 @@
         <v>43</v>
       </c>
       <c r="C40">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="D40" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E40" t="s">
         <v>161</v>
@@ -1647,10 +1647,10 @@
         <v>44</v>
       </c>
       <c r="C41">
-        <v>2.8</v>
+        <v>4.1</v>
       </c>
       <c r="D41" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="E41" t="s">
         <v>162</v>
@@ -1664,10 +1664,10 @@
         <v>45</v>
       </c>
       <c r="C42">
-        <v>4.6</v>
+        <v>3.7</v>
       </c>
       <c r="D42" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E42" t="s">
         <v>163</v>
@@ -1681,10 +1681,10 @@
         <v>46</v>
       </c>
       <c r="C43">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="D43" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="E43" t="s">
         <v>164</v>
@@ -1698,7 +1698,7 @@
         <v>47</v>
       </c>
       <c r="C44">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="D44" t="s">
         <v>113</v>
@@ -1715,10 +1715,10 @@
         <v>48</v>
       </c>
       <c r="C45">
-        <v>4.1</v>
+        <v>3.7</v>
       </c>
       <c r="D45" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E45" t="s">
         <v>166</v>
@@ -1732,10 +1732,10 @@
         <v>49</v>
       </c>
       <c r="C46">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="D46" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E46" t="s">
         <v>167</v>
@@ -1749,10 +1749,10 @@
         <v>50</v>
       </c>
       <c r="C47">
-        <v>4.1</v>
+        <v>3.1</v>
       </c>
       <c r="D47" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E47" t="s">
         <v>168</v>
@@ -1766,10 +1766,10 @@
         <v>51</v>
       </c>
       <c r="C48">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="D48" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E48" t="s">
         <v>169</v>
@@ -1783,10 +1783,10 @@
         <v>52</v>
       </c>
       <c r="C49">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="D49" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="E49" t="s">
         <v>170</v>
@@ -1800,10 +1800,10 @@
         <v>53</v>
       </c>
       <c r="C50">
-        <v>3.2</v>
+        <v>3.9</v>
       </c>
       <c r="D50" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E50" t="s">
         <v>149</v>
@@ -1817,10 +1817,10 @@
         <v>54</v>
       </c>
       <c r="C51">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="D51" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E51" t="s">
         <v>150</v>
@@ -1834,10 +1834,10 @@
         <v>55</v>
       </c>
       <c r="C52">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="D52" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="E52" t="s">
         <v>151</v>
@@ -1851,10 +1851,10 @@
         <v>56</v>
       </c>
       <c r="C53">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="D53" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E53" t="s">
         <v>152</v>
@@ -1868,10 +1868,10 @@
         <v>57</v>
       </c>
       <c r="C54">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="D54" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E54" t="s">
         <v>171</v>
@@ -1885,10 +1885,10 @@
         <v>58</v>
       </c>
       <c r="C55">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="D55" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="E55" t="s">
         <v>172</v>
@@ -1902,10 +1902,10 @@
         <v>59</v>
       </c>
       <c r="C56">
-        <v>2.6</v>
+        <v>4.1</v>
       </c>
       <c r="D56" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E56" t="s">
         <v>173</v>
@@ -1919,10 +1919,10 @@
         <v>60</v>
       </c>
       <c r="C57">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="D57" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E57" t="s">
         <v>174</v>
@@ -1936,10 +1936,10 @@
         <v>61</v>
       </c>
       <c r="C58">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="D58" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="E58" t="s">
         <v>175</v>
@@ -1953,10 +1953,10 @@
         <v>62</v>
       </c>
       <c r="C59">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="D59" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E59" t="s">
         <v>176</v>
@@ -1970,10 +1970,10 @@
         <v>63</v>
       </c>
       <c r="C60">
-        <v>4.1</v>
+        <v>3</v>
       </c>
       <c r="D60" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E60" t="s">
         <v>177</v>
@@ -1987,7 +1987,7 @@
         <v>64</v>
       </c>
       <c r="C61">
-        <v>2.5</v>
+        <v>3.8</v>
       </c>
       <c r="D61" t="s">
         <v>113</v>
@@ -2004,10 +2004,10 @@
         <v>65</v>
       </c>
       <c r="C62">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="D62" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E62" t="s">
         <v>179</v>
@@ -2021,10 +2021,10 @@
         <v>66</v>
       </c>
       <c r="C63">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="D63" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E63" t="s">
         <v>180</v>
@@ -2038,10 +2038,10 @@
         <v>67</v>
       </c>
       <c r="C64">
-        <v>3.7</v>
+        <v>3.1</v>
       </c>
       <c r="D64" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="E64" t="s">
         <v>181</v>
@@ -2055,7 +2055,7 @@
         <v>68</v>
       </c>
       <c r="C65">
-        <v>4.4</v>
+        <v>3.2</v>
       </c>
       <c r="D65" t="s">
         <v>117</v>
@@ -2072,7 +2072,7 @@
         <v>69</v>
       </c>
       <c r="C66">
-        <v>4.1</v>
+        <v>2.7</v>
       </c>
       <c r="D66" t="s">
         <v>117</v>
@@ -2089,7 +2089,7 @@
         <v>70</v>
       </c>
       <c r="C67">
-        <v>2.6</v>
+        <v>4.1</v>
       </c>
       <c r="D67" t="s">
         <v>118</v>
@@ -2106,7 +2106,7 @@
         <v>71</v>
       </c>
       <c r="C68">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="D68" t="s">
         <v>118</v>
@@ -2123,7 +2123,7 @@
         <v>72</v>
       </c>
       <c r="C69">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="D69" t="s">
         <v>119</v>
@@ -2140,7 +2140,7 @@
         <v>73</v>
       </c>
       <c r="C70">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="D70" t="s">
         <v>120</v>
@@ -2157,7 +2157,7 @@
         <v>74</v>
       </c>
       <c r="C71">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="D71" t="s">
         <v>121</v>
@@ -2174,7 +2174,7 @@
         <v>75</v>
       </c>
       <c r="C72">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="D72" t="s">
         <v>121</v>
@@ -2191,7 +2191,7 @@
         <v>76</v>
       </c>
       <c r="C73">
-        <v>3.5</v>
+        <v>2.6</v>
       </c>
       <c r="D73" t="s">
         <v>121</v>
@@ -2208,7 +2208,7 @@
         <v>77</v>
       </c>
       <c r="C74">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="D74" t="s">
         <v>122</v>
@@ -2225,7 +2225,7 @@
         <v>78</v>
       </c>
       <c r="C75">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="D75" t="s">
         <v>122</v>
@@ -2242,7 +2242,7 @@
         <v>79</v>
       </c>
       <c r="C76">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="D76" t="s">
         <v>122</v>
@@ -2262,7 +2262,7 @@
         <v>3.7</v>
       </c>
       <c r="D77" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E77" t="s">
         <v>123</v>
@@ -2276,7 +2276,7 @@
         <v>81</v>
       </c>
       <c r="C78">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="D78" t="s">
         <v>108</v>
@@ -2293,10 +2293,10 @@
         <v>82</v>
       </c>
       <c r="C79">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
       <c r="D79" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E79" t="s">
         <v>125</v>
@@ -2310,7 +2310,7 @@
         <v>83</v>
       </c>
       <c r="C80">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="D80" t="s">
         <v>108</v>
@@ -2327,10 +2327,10 @@
         <v>84</v>
       </c>
       <c r="C81">
-        <v>3.3</v>
+        <v>4.1</v>
       </c>
       <c r="D81" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E81" t="s">
         <v>127</v>
@@ -2344,7 +2344,7 @@
         <v>85</v>
       </c>
       <c r="C82">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="D82" t="s">
         <v>108</v>
@@ -2361,10 +2361,10 @@
         <v>86</v>
       </c>
       <c r="C83">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="D83" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E83" t="s">
         <v>129</v>
@@ -2378,10 +2378,10 @@
         <v>87</v>
       </c>
       <c r="C84">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="D84" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E84" t="s">
         <v>188</v>
@@ -2395,7 +2395,7 @@
         <v>88</v>
       </c>
       <c r="C85">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="D85" t="s">
         <v>108</v>
@@ -2412,10 +2412,10 @@
         <v>89</v>
       </c>
       <c r="C86">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="D86" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E86" t="s">
         <v>190</v>
@@ -2429,10 +2429,10 @@
         <v>90</v>
       </c>
       <c r="C87">
-        <v>4.4</v>
+        <v>3.1</v>
       </c>
       <c r="D87" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E87" t="s">
         <v>153</v>
@@ -2446,7 +2446,7 @@
         <v>91</v>
       </c>
       <c r="C88">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="D88" t="s">
         <v>108</v>
@@ -2463,10 +2463,10 @@
         <v>92</v>
       </c>
       <c r="C89">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="D89" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E89" t="s">
         <v>155</v>
@@ -2480,7 +2480,7 @@
         <v>93</v>
       </c>
       <c r="C90">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="D90" t="s">
         <v>108</v>
@@ -2500,7 +2500,7 @@
         <v>4</v>
       </c>
       <c r="D91" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E91" t="s">
         <v>157</v>
@@ -2514,7 +2514,7 @@
         <v>95</v>
       </c>
       <c r="C92">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="D92" t="s">
         <v>108</v>
@@ -2531,10 +2531,10 @@
         <v>96</v>
       </c>
       <c r="C93">
-        <v>3.2</v>
+        <v>3.9</v>
       </c>
       <c r="D93" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E93" t="s">
         <v>192</v>
@@ -2548,7 +2548,7 @@
         <v>97</v>
       </c>
       <c r="C94">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="D94" t="s">
         <v>108</v>
@@ -2565,7 +2565,7 @@
         <v>98</v>
       </c>
       <c r="C95">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="D95" t="s">
         <v>117</v>
@@ -2582,7 +2582,7 @@
         <v>99</v>
       </c>
       <c r="C96">
-        <v>4.6</v>
+        <v>4.3</v>
       </c>
       <c r="D96" t="s">
         <v>117</v>
@@ -2599,7 +2599,7 @@
         <v>100</v>
       </c>
       <c r="C97">
-        <v>4.6</v>
+        <v>3.9</v>
       </c>
       <c r="D97" t="s">
         <v>118</v>
@@ -2650,7 +2650,7 @@
         <v>103</v>
       </c>
       <c r="C100">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="D100" t="s">
         <v>120</v>
@@ -2667,7 +2667,7 @@
         <v>104</v>
       </c>
       <c r="C101">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="D101" t="s">
         <v>120</v>
